--- a/Testes.xlsx
+++ b/Testes.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Sistemas Distribuídos 2018/19 - Meta 1</t>
   </si>
@@ -106,13 +106,16 @@
   </si>
   <si>
     <t>Matar servidorMulti que responde e garantir que outro servidor esta agora a responder</t>
+  </si>
+  <si>
+    <t>Comunicação entre pcs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -168,8 +171,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +204,16 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -197,7 +224,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="156">
+  <cellStyleXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -354,8 +381,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -391,8 +420,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="155"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="157"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="156"/>
   </cellXfs>
-  <cellStyles count="156">
+  <cellStyles count="158">
     <cellStyle name="Correcto" xfId="155" builtinId="26"/>
     <cellStyle name="Hiperligação" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperligação" xfId="3" builtinId="8" hidden="1"/>
@@ -548,6 +579,8 @@
     <cellStyle name="Hiperligação Visitada" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Hiperligação Visitada" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Hiperligação Visitada" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Incorrecto" xfId="156" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="157" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -891,10 +924,10 @@
   <dimension ref="B1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -959,96 +992,97 @@
       <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D9"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D10"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D11"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D12"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D13"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D14"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D15"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D16"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D17"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D18"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D19"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D20"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D21"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D22"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D23"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="2:4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="7"/>
@@ -1058,7 +1092,7 @@
       <c r="B26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="12"/>
+      <c r="D26"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" s="9" t="s">
@@ -1079,8 +1113,10 @@
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="9"/>
-      <c r="D30"/>
+      <c r="B30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="14"/>
     </row>
     <row r="31" spans="2:4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
